--- a/GP People - Save All.xlsx
+++ b/GP People - Save All.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wjhla\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3E1EAF-5227-4ABE-9D60-D9A59B367BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEDEB33-7BFE-4A27-B92C-656DB81D6B91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{7BC11405-AF8C-4F00-8185-5D0D8917C3BA}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Mark</t>
   </si>
@@ -135,15 +135,6 @@
   </si>
   <si>
     <t>https://photos.google.com/people</t>
-  </si>
-  <si>
-    <t>http://wjhladik.github.io/GP People - Save All.xlsx</t>
-  </si>
-  <si>
-    <t>Download latest spreadsheet:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your GP People &amp; Pets Album: </t>
   </si>
 </sst>
 </file>
@@ -257,15 +248,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>32656</xdr:rowOff>
+      <xdr:colOff>391886</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>43541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>261257</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>97970</xdr:rowOff>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>108855</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -280,7 +271,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="457200" y="587827"/>
+          <a:off x="391886" y="413655"/>
           <a:ext cx="10929257" cy="3026229"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1595,40 +1586,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3803AA55-E5E3-4024-B1B3-750CD44665F7}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>16</v>
-      </c>
+    <row r="1" spans="2:2">
+      <c r="B1" s="9"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{7E1F969B-AA82-4627-90B0-E7C74443DFFD}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{EA9030A9-FA6F-41F4-BFB0-2429793A8705}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
